--- a/TestData/cartupdate.xlsx
+++ b/TestData/cartupdate.xlsx
@@ -61,27 +61,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -90,7 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -400,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/cartupdate.xlsx
+++ b/TestData/cartupdate.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
